--- a/data/reimbursement.xlsx
+++ b/data/reimbursement.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C0481D-CFFD-49C1-946A-27D7E489D0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEFDE3C-8C2F-4BE0-900E-FD044B68F23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>title</t>
   </si>
   <si>
-    <t>One invited speaker with an academic or regulatory affiliation per presentation.</t>
+    <t>One invited speaker with an academic or regulatory affiliation per presentation</t>
   </si>
   <si>
-    <t>One session chair with a regulatory affiliation per session.</t>
+    <t>One session chair with a regulatory affiliation per session</t>
   </si>
 </sst>
 </file>
@@ -85,11 +85,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,12 +371,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -390,12 +388,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
